--- a/va_facility_data_2025-02-20/Pensacola VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pensacola%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pensacola VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pensacola%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R383a614978654bed99c4437014a8910b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R543c663c23934aabb76e71ebd9e46703"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re288bd578ac5407e8186dc947d2d0eb5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8176b5bcad654b35a41c9f8084da8c8d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcc037fccda014db0ae0cdc713175a750"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R641b40ab0f724346a1e6fc574c98c4fb"/>
   </x:sheets>
 </x:workbook>
 </file>
